--- a/data/trans_dic/P04D$aparatos-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P04D$aparatos-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>64,7; 71,94</t>
+          <t>64,74; 72,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>50,32; 58,13</t>
+          <t>50,49; 58,02</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>70,75; 78,94</t>
+          <t>70,7; 78,92</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>65,51; 72,66</t>
+          <t>65,38; 72,48</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>51,47; 59,49</t>
+          <t>51,6; 59,5</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>71,29; 79,77</t>
+          <t>71,16; 80,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>66,33; 71,38</t>
+          <t>66,36; 71,32</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>52,31; 57,69</t>
+          <t>52,34; 57,72</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>72,28; 78,39</t>
+          <t>72,46; 78,25</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>62,6; 69,06</t>
+          <t>63,0; 69,1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>53,95; 59,67</t>
+          <t>53,49; 60,06</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>27,67; 65,47</t>
+          <t>27,25; 65,21</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>65,44; 71,27</t>
+          <t>65,49; 71,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>53,26; 59,42</t>
+          <t>53,47; 60,11</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>66,36; 71,49</t>
+          <t>66,18; 71,31</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>64,86; 69,26</t>
+          <t>65,01; 69,46</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>54,3; 58,96</t>
+          <t>54,43; 59,02</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>37,54; 67,42</t>
+          <t>39,65; 67,02</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>63,15; 70,45</t>
+          <t>62,98; 70,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>39,0; 46,46</t>
+          <t>38,91; 46,75</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>60,1; 68,78</t>
+          <t>60,67; 68,59</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>68,48; 75,35</t>
+          <t>68,76; 75,3</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>37,88; 45,15</t>
+          <t>37,49; 44,86</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>65,49; 88,03</t>
+          <t>65,46; 86,49</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>66,75; 71,78</t>
+          <t>66,89; 71,78</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>39,68; 44,95</t>
+          <t>39,57; 44,83</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>64,83; 79,65</t>
+          <t>64,87; 80,9</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>50,05; 56,65</t>
+          <t>49,62; 56,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>53,09; 59,95</t>
+          <t>53,07; 59,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>52,15; 59,73</t>
+          <t>52,31; 59,43</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>50,66; 57,22</t>
+          <t>50,99; 57,01</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>51,18; 57,49</t>
+          <t>50,86; 57,47</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>40,65; 58,3</t>
+          <t>42,79; 58,25</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>51,29; 55,78</t>
+          <t>51,3; 56,11</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>52,74; 57,43</t>
+          <t>52,97; 57,5</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>48,52; 57,75</t>
+          <t>48,35; 57,71</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>61,28; 64,94</t>
+          <t>61,54; 64,9</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>51,34; 54,78</t>
+          <t>51,2; 54,69</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>45,94; 64,75</t>
+          <t>45,25; 64,75</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>63,42; 66,71</t>
+          <t>63,32; 66,68</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>50,55; 54,0</t>
+          <t>50,72; 53,94</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>63,32; 72,2</t>
+          <t>62,9; 72,14</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>62,95; 65,18</t>
+          <t>62,96; 65,36</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>51,39; 53,81</t>
+          <t>51,46; 53,81</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>56,24; 66,83</t>
+          <t>56,47; 66,81</t>
         </is>
       </c>
     </row>
@@ -1190,4 +1191,963 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que, al menos, tiene aparatos de calefacción en su vivienda</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>462</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>363</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>556</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>445</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>372</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>938</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>735</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1494</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>480406</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>366682</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>476371</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>481029</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>374752</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>540264</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>961435</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>741434</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>1016635</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>453663; 505079</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>340734; 391533</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>447819; 499888</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>455001; 504434</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>347192; 400328</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>515695; 579768</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>926848; 996061</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>705409; 777846</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>984006; 1062750</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>620</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>541</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>649</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>640</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>551</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>1064</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>1260</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>1092</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>1713</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>671062</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>578933</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>607653</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>703911</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>590411</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>660405</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1374973</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1169344</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1268057</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>639145; 701052</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>546854; 614087</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>324759; 777153</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>674606; 731411</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>557668; 626887</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>632901; 681954</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>1329220; 1420247</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>1124112; 1218893</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>851744; 1439605</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>457</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>305</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>651</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>966</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>618</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>1063</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>505873</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>326271</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>457039</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>559130</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>324414</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>690650</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>1065003</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>650685</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>1147689</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>476592; 534147</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>295562; 355067</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>426904; 482617</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>533686; 584458</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>294275; 352163</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>609740; 805547</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1025297; 1100350</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>611157; 692484</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1060719; 1322795</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>486</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>532</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>585</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>539</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>523</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>1025</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1055</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1481</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>505541</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>528659</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>517857</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>567979</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>564319</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>586344</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>1073520</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1092977</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1104201</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>470261; 535729</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>497560; 558538</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>483710; 549554</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>536314; 599680</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>530862; 599813</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>467214; 636019</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>1025854; 1121901</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1049526; 1139253</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>975088; 1163908</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>1741</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>2202</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>2133</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>1759</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>3549</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>4158</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>3500</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>5751</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>2162883</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>1800544</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>2058920</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>2312049</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>1853895</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>2477662</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>4474931</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>3654439</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>4536582</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2104605; 2219363</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1737791; 1856233</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1562695; 2236086</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>2250375; 2369772</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>1797706; 1912004</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>2330217; 2672409</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>4390928; 4557754</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>3570685; 3733500</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>4041784; 4782236</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>